--- a/dias_trabajados.xlsx
+++ b/dias_trabajados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A5C49D-97C5-4160-994E-86E6A4F1232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82EF6A3-BE4E-4049-99F9-0AF44A9F9E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Felipe</t>
+  </si>
+  <si>
+    <t>21_01_2024</t>
   </si>
 </sst>
 </file>
@@ -386,20 +389,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="1" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +414,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -426,8 +431,11 @@
       <c r="D2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -440,8 +448,11 @@
       <c r="D3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -454,8 +465,11 @@
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -468,11 +482,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
   </sheetData>

--- a/dias_trabajados.xlsx
+++ b/dias_trabajados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82EF6A3-BE4E-4049-99F9-0AF44A9F9E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1356D7-2ED4-4460-AD3B-3F6F11FB464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>21_01_2024</t>
+  </si>
+  <si>
+    <t>28_01_2024</t>
   </si>
 </sst>
 </file>
@@ -389,19 +392,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +420,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -434,8 +440,11 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -451,8 +460,11 @@
       <c r="E3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -468,8 +480,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -485,11 +500,14 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
   </sheetData>

--- a/dias_trabajados.xlsx
+++ b/dias_trabajados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\insta\repos\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1356D7-2ED4-4460-AD3B-3F6F11FB464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E92D2-B193-432A-AB5D-7900BDEE06CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="4185" windowWidth="11865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -395,16 +395,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="1" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -501,13 +501,14 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
   </sheetData>

--- a/dias_trabajados.xlsx
+++ b/dias_trabajados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\insta\repos\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E92D2-B193-432A-AB5D-7900BDEE06CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E3973E-CFD7-4FCA-A293-799F30E9E3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="4185" windowWidth="11865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>28_01_2024</t>
+  </si>
+  <si>
+    <t>07_02_2024</t>
   </si>
 </sst>
 </file>
@@ -392,19 +395,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +426,11 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -443,8 +449,11 @@
       <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -463,8 +472,11 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -483,8 +495,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -503,12 +518,15 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
   </sheetData>
